--- a/biology/Botanique/Papaver_setigerum/Papaver_setigerum.xlsx
+++ b/biology/Botanique/Papaver_setigerum/Papaver_setigerum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papaver setigerum, le pavot sauvage, est une espèce de plantes dicotylédones de la famille des Papaveraceae, sous-famille des Papaveroideae, originaire de l'ouest du bassin méditerranéen et de Macaronésie. C'est une espèce très proche du pavot somnifère (Papaver somniferum), parfois considérée comme une sous-espèce de ce dernier sous le nom de Papaver somniferum subsp. setigerum (DC.) Arcang.
-Papaver setigerum diffère de Papaver somniferum par des caractères morphologiques et par le caryotype. La première est une espèce tétraploïde à 44 chromosomes (2n = 4x = 44) et la seconde une espèce diploïde à 22 chromosomes (2n = 2x = 22)[2]. 
+Papaver setigerum diffère de Papaver somniferum par des caractères morphologiques et par le caryotype. La première est une espèce tétraploïde à 44 chromosomes (2n = 4x = 44) et la seconde une espèce diploïde à 22 chromosomes (2n = 2x = 22). 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 octobre 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 octobre 2020) :
 Papaver setigerum DC.
 Papaver somniferum subsp. setigerum (DC.) L. Corb. (préféré par BioLib)
 Papaver somniferum var. setigerum (DC.) Boiss.</t>
